--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Anxa1-Dysf.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Anxa1-Dysf.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>26.5877201278672</v>
+        <v>28.49436566666666</v>
       </c>
       <c r="H2">
-        <v>26.5877201278672</v>
+        <v>85.48309699999999</v>
       </c>
       <c r="I2">
-        <v>0.04666121232735289</v>
+        <v>0.04826188997421807</v>
       </c>
       <c r="J2">
-        <v>0.04666121232735289</v>
+        <v>0.04826188997421808</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>46.2701534350173</v>
+        <v>46.53589633333333</v>
       </c>
       <c r="N2">
-        <v>46.2701534350173</v>
+        <v>139.607689</v>
       </c>
       <c r="O2">
-        <v>0.8891247054130811</v>
+        <v>0.8867556666251134</v>
       </c>
       <c r="P2">
-        <v>0.8891247054130811</v>
+        <v>0.8867556666251134</v>
       </c>
       <c r="Q2">
-        <v>1230.217889803713</v>
+        <v>1326.010846748092</v>
       </c>
       <c r="R2">
-        <v>1230.217889803713</v>
+        <v>11934.09762073283</v>
       </c>
       <c r="S2">
-        <v>0.04148763666477486</v>
+        <v>0.04279650441667562</v>
       </c>
       <c r="T2">
-        <v>0.04148763666477486</v>
+        <v>0.04279650441667563</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>26.5877201278672</v>
+        <v>28.49436566666666</v>
       </c>
       <c r="H3">
-        <v>26.5877201278672</v>
+        <v>85.48309699999999</v>
       </c>
       <c r="I3">
-        <v>0.04666121232735289</v>
+        <v>0.04826188997421807</v>
       </c>
       <c r="J3">
-        <v>0.04666121232735289</v>
+        <v>0.04826188997421808</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.50343297040037</v>
+        <v>4.537963333333333</v>
       </c>
       <c r="N3">
-        <v>4.50343297040037</v>
+        <v>13.61389</v>
       </c>
       <c r="O3">
-        <v>0.0865377185052615</v>
+        <v>0.08647227232814493</v>
       </c>
       <c r="P3">
-        <v>0.0865377185052615</v>
+        <v>0.08647227232814494</v>
       </c>
       <c r="Q3">
-        <v>119.7360154316147</v>
+        <v>129.3063866019255</v>
       </c>
       <c r="R3">
-        <v>119.7360154316147</v>
+        <v>1163.75747941733</v>
       </c>
       <c r="S3">
-        <v>0.004037954857498702</v>
+        <v>0.004173315292921553</v>
       </c>
       <c r="T3">
-        <v>0.004037954857498702</v>
+        <v>0.004173315292921554</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>26.5877201278672</v>
+        <v>28.49436566666666</v>
       </c>
       <c r="H4">
-        <v>26.5877201278672</v>
+        <v>85.48309699999999</v>
       </c>
       <c r="I4">
-        <v>0.04666121232735289</v>
+        <v>0.04826188997421807</v>
       </c>
       <c r="J4">
-        <v>0.04666121232735289</v>
+        <v>0.04826188997421808</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.26653029960687</v>
+        <v>0.009942666666666667</v>
       </c>
       <c r="N4">
-        <v>1.26653029960687</v>
+        <v>0.029828</v>
       </c>
       <c r="O4">
-        <v>0.0243375760816575</v>
+        <v>0.0001894605391261357</v>
       </c>
       <c r="P4">
-        <v>0.0243375760816575</v>
+        <v>0.0001894605391261357</v>
       </c>
       <c r="Q4">
-        <v>33.67415313941125</v>
+        <v>0.2833099797017778</v>
       </c>
       <c r="R4">
-        <v>33.67415313941125</v>
+        <v>2.549789817315999</v>
       </c>
       <c r="S4">
-        <v>0.001135620805079326</v>
+        <v>9.1437236937616E-06</v>
       </c>
       <c r="T4">
-        <v>0.001135620805079326</v>
+        <v>9.1437236937616E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>141.682838065087</v>
+        <v>28.49436566666666</v>
       </c>
       <c r="H5">
-        <v>141.682838065087</v>
+        <v>85.48309699999999</v>
       </c>
       <c r="I5">
-        <v>0.2486521205392012</v>
+        <v>0.04826188997421807</v>
       </c>
       <c r="J5">
-        <v>0.2486521205392012</v>
+        <v>0.04826188997421808</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>46.2701534350173</v>
+        <v>0.05448266666666666</v>
       </c>
       <c r="N5">
-        <v>46.2701534350173</v>
+        <v>0.163448</v>
       </c>
       <c r="O5">
-        <v>0.8891247054130811</v>
+        <v>0.001038183793720284</v>
       </c>
       <c r="P5">
-        <v>0.8891247054130811</v>
+        <v>0.001038183793720284</v>
       </c>
       <c r="Q5">
-        <v>6555.686656380285</v>
+        <v>1.552449026495111</v>
       </c>
       <c r="R5">
-        <v>6555.686656380285</v>
+        <v>13.972041238456</v>
       </c>
       <c r="S5">
-        <v>0.2210827434247552</v>
+        <v>5.010471202554464E-05</v>
       </c>
       <c r="T5">
-        <v>0.2210827434247552</v>
+        <v>5.010471202554465E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>141.682838065087</v>
+        <v>28.49436566666666</v>
       </c>
       <c r="H6">
-        <v>141.682838065087</v>
+        <v>85.48309699999999</v>
       </c>
       <c r="I6">
-        <v>0.2486521205392012</v>
+        <v>0.04826188997421807</v>
       </c>
       <c r="J6">
-        <v>0.2486521205392012</v>
+        <v>0.04826188997421808</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.50343297040037</v>
+        <v>1.340541</v>
       </c>
       <c r="N6">
-        <v>4.50343297040037</v>
+        <v>4.021623</v>
       </c>
       <c r="O6">
-        <v>0.0865377185052615</v>
+        <v>0.02554441671389524</v>
       </c>
       <c r="P6">
-        <v>0.0865377185052615</v>
+        <v>0.02554441671389524</v>
       </c>
       <c r="Q6">
-        <v>638.0591642822094</v>
+        <v>38.197865445159</v>
       </c>
       <c r="R6">
-        <v>638.0591642822094</v>
+        <v>343.780789006431</v>
       </c>
       <c r="S6">
-        <v>0.02151778721295774</v>
+        <v>0.001232821828901589</v>
       </c>
       <c r="T6">
-        <v>0.02151778721295774</v>
+        <v>0.001232821828901589</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>141.682838065087</v>
+        <v>142.0814363333334</v>
       </c>
       <c r="H7">
-        <v>141.682838065087</v>
+        <v>426.244309</v>
       </c>
       <c r="I7">
-        <v>0.2486521205392012</v>
+        <v>0.2406482294750577</v>
       </c>
       <c r="J7">
-        <v>0.2486521205392012</v>
+        <v>0.2406482294750577</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.26653029960687</v>
+        <v>46.53589633333333</v>
       </c>
       <c r="N7">
-        <v>1.26653029960687</v>
+        <v>139.607689</v>
       </c>
       <c r="O7">
-        <v>0.0243375760816575</v>
+        <v>0.8867556666251134</v>
       </c>
       <c r="P7">
-        <v>0.0243375760816575</v>
+        <v>0.8867556666251134</v>
       </c>
       <c r="Q7">
-        <v>179.4456073437263</v>
+        <v>6611.886992099101</v>
       </c>
       <c r="R7">
-        <v>179.4456073437263</v>
+        <v>59506.98292889191</v>
       </c>
       <c r="S7">
-        <v>0.006051589901488279</v>
+        <v>0.213396181150308</v>
       </c>
       <c r="T7">
-        <v>0.006051589901488279</v>
+        <v>0.2133961811503081</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,122 +903,122 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>209.786248059852</v>
+        <v>142.0814363333334</v>
       </c>
       <c r="H8">
-        <v>209.786248059852</v>
+        <v>426.244309</v>
       </c>
       <c r="I8">
-        <v>0.3681729993020171</v>
+        <v>0.2406482294750577</v>
       </c>
       <c r="J8">
-        <v>0.3681729993020171</v>
+        <v>0.2406482294750577</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>46.2701534350173</v>
+        <v>4.537963333333333</v>
       </c>
       <c r="N8">
-        <v>46.2701534350173</v>
+        <v>13.61389</v>
       </c>
       <c r="O8">
-        <v>0.8891247054130811</v>
+        <v>0.08647227232814493</v>
       </c>
       <c r="P8">
-        <v>0.8891247054130811</v>
+        <v>0.08647227232814494</v>
       </c>
       <c r="Q8">
-        <v>9706.841886285953</v>
+        <v>644.7603484280012</v>
       </c>
       <c r="R8">
-        <v>9706.841886285953</v>
+        <v>5802.84313585201</v>
       </c>
       <c r="S8">
-        <v>0.3273517095454565</v>
+        <v>0.0208093992344531</v>
       </c>
       <c r="T8">
-        <v>0.3273517095454565</v>
+        <v>0.02080939923445311</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>209.786248059852</v>
+        <v>142.0814363333334</v>
       </c>
       <c r="H9">
-        <v>209.786248059852</v>
+        <v>426.244309</v>
       </c>
       <c r="I9">
-        <v>0.3681729993020171</v>
+        <v>0.2406482294750577</v>
       </c>
       <c r="J9">
-        <v>0.3681729993020171</v>
+        <v>0.2406482294750577</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>4.50343297040037</v>
+        <v>0.009942666666666667</v>
       </c>
       <c r="N9">
-        <v>4.50343297040037</v>
+        <v>0.029828</v>
       </c>
       <c r="O9">
-        <v>0.0865377185052615</v>
+        <v>0.0001894605391261357</v>
       </c>
       <c r="P9">
-        <v>0.0865377185052615</v>
+        <v>0.0001894605391261357</v>
       </c>
       <c r="Q9">
-        <v>944.7583062493281</v>
+        <v>1.412668360983556</v>
       </c>
       <c r="R9">
-        <v>944.7583062493281</v>
+        <v>12.714015248852</v>
       </c>
       <c r="S9">
-        <v>0.0318608513748358</v>
+        <v>4.559334329609445E-05</v>
       </c>
       <c r="T9">
-        <v>0.0318608513748358</v>
+        <v>4.559334329609445E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>209.786248059852</v>
+        <v>142.0814363333334</v>
       </c>
       <c r="H10">
-        <v>209.786248059852</v>
+        <v>426.244309</v>
       </c>
       <c r="I10">
-        <v>0.3681729993020171</v>
+        <v>0.2406482294750577</v>
       </c>
       <c r="J10">
-        <v>0.3681729993020171</v>
+        <v>0.2406482294750577</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>1.26653029960687</v>
+        <v>0.05448266666666666</v>
       </c>
       <c r="N10">
-        <v>1.26653029960687</v>
+        <v>0.163448</v>
       </c>
       <c r="O10">
-        <v>0.0243375760816575</v>
+        <v>0.001038183793720284</v>
       </c>
       <c r="P10">
-        <v>0.0243375760816575</v>
+        <v>0.001038183793720284</v>
       </c>
       <c r="Q10">
-        <v>265.7006396086455</v>
+        <v>7.740975535270223</v>
       </c>
       <c r="R10">
-        <v>265.7006396086455</v>
+        <v>69.668779817432</v>
       </c>
       <c r="S10">
-        <v>0.008960438381724875</v>
+        <v>0.0002498370918284848</v>
       </c>
       <c r="T10">
-        <v>0.008960438381724875</v>
+        <v>0.0002498370918284848</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,60 +1089,60 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>127.549377663799</v>
+        <v>142.0814363333334</v>
       </c>
       <c r="H11">
-        <v>127.549377663799</v>
+        <v>426.244309</v>
       </c>
       <c r="I11">
-        <v>0.2238480232516901</v>
+        <v>0.2406482294750577</v>
       </c>
       <c r="J11">
-        <v>0.2238480232516901</v>
+        <v>0.2406482294750577</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>46.2701534350173</v>
+        <v>1.340541</v>
       </c>
       <c r="N11">
-        <v>46.2701534350173</v>
+        <v>4.021623</v>
       </c>
       <c r="O11">
-        <v>0.8891247054130811</v>
+        <v>0.02554441671389524</v>
       </c>
       <c r="P11">
-        <v>0.8891247054130811</v>
+        <v>0.02554441671389524</v>
       </c>
       <c r="Q11">
-        <v>5901.729275044949</v>
+        <v>190.465990743723</v>
       </c>
       <c r="R11">
-        <v>5901.729275044949</v>
+        <v>1714.193916693507</v>
       </c>
       <c r="S11">
-        <v>0.1990288077309595</v>
+        <v>0.00614721865517196</v>
       </c>
       <c r="T11">
-        <v>0.1990288077309595</v>
+        <v>0.006147218655171961</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,60 +1151,60 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>127.549377663799</v>
+        <v>209.9177196666667</v>
       </c>
       <c r="H12">
-        <v>127.549377663799</v>
+        <v>629.753159</v>
       </c>
       <c r="I12">
-        <v>0.2238480232516901</v>
+        <v>0.3555448824061003</v>
       </c>
       <c r="J12">
-        <v>0.2238480232516901</v>
+        <v>0.3555448824061003</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.50343297040037</v>
+        <v>46.53589633333333</v>
       </c>
       <c r="N12">
-        <v>4.50343297040037</v>
+        <v>139.607689</v>
       </c>
       <c r="O12">
-        <v>0.0865377185052615</v>
+        <v>0.8867556666251134</v>
       </c>
       <c r="P12">
-        <v>0.0865377185052615</v>
+        <v>0.8867556666251134</v>
       </c>
       <c r="Q12">
-        <v>574.410072725201</v>
+        <v>9768.709240937727</v>
       </c>
       <c r="R12">
-        <v>574.410072725201</v>
+        <v>87918.38316843954</v>
       </c>
       <c r="S12">
-        <v>0.01937129722411399</v>
+        <v>0.315281439213169</v>
       </c>
       <c r="T12">
-        <v>0.01937129722411399</v>
+        <v>0.315281439213169</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>127.549377663799</v>
+        <v>209.9177196666667</v>
       </c>
       <c r="H13">
-        <v>127.549377663799</v>
+        <v>629.753159</v>
       </c>
       <c r="I13">
-        <v>0.2238480232516901</v>
+        <v>0.3555448824061003</v>
       </c>
       <c r="J13">
-        <v>0.2238480232516901</v>
+        <v>0.3555448824061003</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.26653029960687</v>
+        <v>4.537963333333333</v>
       </c>
       <c r="N13">
-        <v>1.26653029960687</v>
+        <v>13.61389</v>
       </c>
       <c r="O13">
-        <v>0.0243375760816575</v>
+        <v>0.08647227232814493</v>
       </c>
       <c r="P13">
-        <v>0.0243375760816575</v>
+        <v>0.08647227232814494</v>
       </c>
       <c r="Q13">
-        <v>161.5451515072012</v>
+        <v>952.5989148642789</v>
       </c>
       <c r="R13">
-        <v>161.5451515072012</v>
+        <v>8573.390233778509</v>
       </c>
       <c r="S13">
-        <v>0.005447918296616646</v>
+        <v>0.03074477389629857</v>
       </c>
       <c r="T13">
-        <v>0.005447918296616646</v>
+        <v>0.03074477389629857</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>64.19727385342431</v>
+        <v>209.9177196666667</v>
       </c>
       <c r="H14">
-        <v>64.19727385342431</v>
+        <v>629.753159</v>
       </c>
       <c r="I14">
-        <v>0.1126656445797387</v>
+        <v>0.3555448824061003</v>
       </c>
       <c r="J14">
-        <v>0.1126656445797387</v>
+        <v>0.3555448824061003</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>46.2701534350173</v>
+        <v>0.009942666666666667</v>
       </c>
       <c r="N14">
-        <v>46.2701534350173</v>
+        <v>0.029828</v>
       </c>
       <c r="O14">
-        <v>0.8891247054130811</v>
+        <v>0.0001894605391261357</v>
       </c>
       <c r="P14">
-        <v>0.8891247054130811</v>
+        <v>0.0001894605391261357</v>
       </c>
       <c r="Q14">
-        <v>2970.417711307767</v>
+        <v>2.087141914072445</v>
       </c>
       <c r="R14">
-        <v>2970.417711307767</v>
+        <v>18.784277226652</v>
       </c>
       <c r="S14">
-        <v>0.1001738080471351</v>
+        <v>6.736172510419828E-05</v>
       </c>
       <c r="T14">
-        <v>0.1001738080471351</v>
+        <v>6.736172510419828E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,60 +1337,60 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>64.19727385342431</v>
+        <v>209.9177196666667</v>
       </c>
       <c r="H15">
-        <v>64.19727385342431</v>
+        <v>629.753159</v>
       </c>
       <c r="I15">
-        <v>0.1126656445797387</v>
+        <v>0.3555448824061003</v>
       </c>
       <c r="J15">
-        <v>0.1126656445797387</v>
+        <v>0.3555448824061003</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>4.50343297040037</v>
+        <v>0.05448266666666666</v>
       </c>
       <c r="N15">
-        <v>4.50343297040037</v>
+        <v>0.163448</v>
       </c>
       <c r="O15">
-        <v>0.0865377185052615</v>
+        <v>0.001038183793720284</v>
       </c>
       <c r="P15">
-        <v>0.0865377185052615</v>
+        <v>0.001038183793720284</v>
       </c>
       <c r="Q15">
-        <v>289.1081196813327</v>
+        <v>11.43687714802578</v>
       </c>
       <c r="R15">
-        <v>289.1081196813327</v>
+        <v>102.931894332232</v>
       </c>
       <c r="S15">
-        <v>0.009749827835855271</v>
+        <v>0.0003691209348541973</v>
       </c>
       <c r="T15">
-        <v>0.009749827835855271</v>
+        <v>0.0003691209348541973</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1402,52 +1402,672 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>64.19727385342431</v>
+        <v>209.9177196666667</v>
       </c>
       <c r="H16">
-        <v>64.19727385342431</v>
+        <v>629.753159</v>
       </c>
       <c r="I16">
-        <v>0.1126656445797387</v>
+        <v>0.3555448824061003</v>
       </c>
       <c r="J16">
-        <v>0.1126656445797387</v>
+        <v>0.3555448824061003</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.26653029960687</v>
+        <v>1.340541</v>
       </c>
       <c r="N16">
-        <v>1.26653029960687</v>
+        <v>4.021623</v>
       </c>
       <c r="O16">
-        <v>0.0243375760816575</v>
+        <v>0.02554441671389524</v>
       </c>
       <c r="P16">
-        <v>0.0243375760816575</v>
+        <v>0.02554441671389524</v>
       </c>
       <c r="Q16">
-        <v>81.30779248752177</v>
+        <v>281.403309839673</v>
       </c>
       <c r="R16">
-        <v>81.30779248752177</v>
+        <v>2532.629788557057</v>
       </c>
       <c r="S16">
-        <v>0.002742008696748374</v>
+        <v>0.009082186636674304</v>
       </c>
       <c r="T16">
-        <v>0.002742008696748374</v>
+        <v>0.009082186636674304</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>132.271009</v>
+      </c>
+      <c r="H17">
+        <v>396.813027</v>
+      </c>
+      <c r="I17">
+        <v>0.2240319703135046</v>
+      </c>
+      <c r="J17">
+        <v>0.2240319703135046</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>46.53589633333333</v>
+      </c>
+      <c r="N17">
+        <v>139.607689</v>
+      </c>
+      <c r="O17">
+        <v>0.8867556666251134</v>
+      </c>
+      <c r="P17">
+        <v>0.8867556666251134</v>
+      </c>
+      <c r="Q17">
+        <v>6155.349962729401</v>
+      </c>
+      <c r="R17">
+        <v>55398.1496645646</v>
+      </c>
+      <c r="S17">
+        <v>0.1986616191806893</v>
+      </c>
+      <c r="T17">
+        <v>0.1986616191806893</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>132.271009</v>
+      </c>
+      <c r="H18">
+        <v>396.813027</v>
+      </c>
+      <c r="I18">
+        <v>0.2240319703135046</v>
+      </c>
+      <c r="J18">
+        <v>0.2240319703135046</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>4.537963333333333</v>
+      </c>
+      <c r="N18">
+        <v>13.61389</v>
+      </c>
+      <c r="O18">
+        <v>0.08647227232814493</v>
+      </c>
+      <c r="P18">
+        <v>0.08647227232814494</v>
+      </c>
+      <c r="Q18">
+        <v>600.2409889050034</v>
+      </c>
+      <c r="R18">
+        <v>5402.16890014503</v>
+      </c>
+      <c r="S18">
+        <v>0.01937255354716024</v>
+      </c>
+      <c r="T18">
+        <v>0.01937255354716025</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>132.271009</v>
+      </c>
+      <c r="H19">
+        <v>396.813027</v>
+      </c>
+      <c r="I19">
+        <v>0.2240319703135046</v>
+      </c>
+      <c r="J19">
+        <v>0.2240319703135046</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.009942666666666667</v>
+      </c>
+      <c r="N19">
+        <v>0.029828</v>
+      </c>
+      <c r="O19">
+        <v>0.0001894605391261357</v>
+      </c>
+      <c r="P19">
+        <v>0.0001894605391261357</v>
+      </c>
+      <c r="Q19">
+        <v>1.315126552150667</v>
+      </c>
+      <c r="R19">
+        <v>11.836138969356</v>
+      </c>
+      <c r="S19">
+        <v>4.2445217877087E-05</v>
+      </c>
+      <c r="T19">
+        <v>4.2445217877087E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>132.271009</v>
+      </c>
+      <c r="H20">
+        <v>396.813027</v>
+      </c>
+      <c r="I20">
+        <v>0.2240319703135046</v>
+      </c>
+      <c r="J20">
+        <v>0.2240319703135046</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.05448266666666666</v>
+      </c>
+      <c r="N20">
+        <v>0.163448</v>
+      </c>
+      <c r="O20">
+        <v>0.001038183793720284</v>
+      </c>
+      <c r="P20">
+        <v>0.001038183793720284</v>
+      </c>
+      <c r="Q20">
+        <v>7.206477293010667</v>
+      </c>
+      <c r="R20">
+        <v>64.85829563709599</v>
+      </c>
+      <c r="S20">
+        <v>0.0002325863608547041</v>
+      </c>
+      <c r="T20">
+        <v>0.0002325863608547041</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>132.271009</v>
+      </c>
+      <c r="H21">
+        <v>396.813027</v>
+      </c>
+      <c r="I21">
+        <v>0.2240319703135046</v>
+      </c>
+      <c r="J21">
+        <v>0.2240319703135046</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.340541</v>
+      </c>
+      <c r="N21">
+        <v>4.021623</v>
+      </c>
+      <c r="O21">
+        <v>0.02554441671389524</v>
+      </c>
+      <c r="P21">
+        <v>0.02554441671389524</v>
+      </c>
+      <c r="Q21">
+        <v>177.314710675869</v>
+      </c>
+      <c r="R21">
+        <v>1595.832396082821</v>
+      </c>
+      <c r="S21">
+        <v>0.005722766006923168</v>
+      </c>
+      <c r="T21">
+        <v>0.005722766006923168</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>77.646779</v>
+      </c>
+      <c r="H22">
+        <v>232.940337</v>
+      </c>
+      <c r="I22">
+        <v>0.1315130278311194</v>
+      </c>
+      <c r="J22">
+        <v>0.1315130278311194</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>46.53589633333333</v>
+      </c>
+      <c r="N22">
+        <v>139.607689</v>
+      </c>
+      <c r="O22">
+        <v>0.8867556666251134</v>
+      </c>
+      <c r="P22">
+        <v>0.8867556666251134</v>
+      </c>
+      <c r="Q22">
+        <v>3613.362458161243</v>
+      </c>
+      <c r="R22">
+        <v>32520.26212345119</v>
+      </c>
+      <c r="S22">
+        <v>0.1166199226642714</v>
+      </c>
+      <c r="T22">
+        <v>0.1166199226642714</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>77.646779</v>
+      </c>
+      <c r="H23">
+        <v>232.940337</v>
+      </c>
+      <c r="I23">
+        <v>0.1315130278311194</v>
+      </c>
+      <c r="J23">
+        <v>0.1315130278311194</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>4.537963333333333</v>
+      </c>
+      <c r="N23">
+        <v>13.61389</v>
+      </c>
+      <c r="O23">
+        <v>0.08647227232814493</v>
+      </c>
+      <c r="P23">
+        <v>0.08647227232814494</v>
+      </c>
+      <c r="Q23">
+        <v>352.3582360534366</v>
+      </c>
+      <c r="R23">
+        <v>3171.22412448093</v>
+      </c>
+      <c r="S23">
+        <v>0.01137223035731146</v>
+      </c>
+      <c r="T23">
+        <v>0.01137223035731146</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>77.646779</v>
+      </c>
+      <c r="H24">
+        <v>232.940337</v>
+      </c>
+      <c r="I24">
+        <v>0.1315130278311194</v>
+      </c>
+      <c r="J24">
+        <v>0.1315130278311194</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.009942666666666667</v>
+      </c>
+      <c r="N24">
+        <v>0.029828</v>
+      </c>
+      <c r="O24">
+        <v>0.0001894605391261357</v>
+      </c>
+      <c r="P24">
+        <v>0.0001894605391261357</v>
+      </c>
+      <c r="Q24">
+        <v>0.7720160413373334</v>
+      </c>
+      <c r="R24">
+        <v>6.948144372036</v>
+      </c>
+      <c r="S24">
+        <v>2.491652915499437E-05</v>
+      </c>
+      <c r="T24">
+        <v>2.491652915499438E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>77.646779</v>
+      </c>
+      <c r="H25">
+        <v>232.940337</v>
+      </c>
+      <c r="I25">
+        <v>0.1315130278311194</v>
+      </c>
+      <c r="J25">
+        <v>0.1315130278311194</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.05448266666666666</v>
+      </c>
+      <c r="N25">
+        <v>0.163448</v>
+      </c>
+      <c r="O25">
+        <v>0.001038183793720284</v>
+      </c>
+      <c r="P25">
+        <v>0.001038183793720284</v>
+      </c>
+      <c r="Q25">
+        <v>4.230403577997333</v>
+      </c>
+      <c r="R25">
+        <v>38.073632201976</v>
+      </c>
+      <c r="S25">
+        <v>0.0001365346941573528</v>
+      </c>
+      <c r="T25">
+        <v>0.0001365346941573528</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>77.646779</v>
+      </c>
+      <c r="H26">
+        <v>232.940337</v>
+      </c>
+      <c r="I26">
+        <v>0.1315130278311194</v>
+      </c>
+      <c r="J26">
+        <v>0.1315130278311194</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.340541</v>
+      </c>
+      <c r="N26">
+        <v>4.021623</v>
+      </c>
+      <c r="O26">
+        <v>0.02554441671389524</v>
+      </c>
+      <c r="P26">
+        <v>0.02554441671389524</v>
+      </c>
+      <c r="Q26">
+        <v>104.088690767439</v>
+      </c>
+      <c r="R26">
+        <v>936.798216906951</v>
+      </c>
+      <c r="S26">
+        <v>0.003359423586224216</v>
+      </c>
+      <c r="T26">
+        <v>0.003359423586224217</v>
       </c>
     </row>
   </sheetData>
